--- a/DataModel.xlsx
+++ b/DataModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishnusaranmurugesan/Documents/big.mind.games/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishnusaranmurugesan/Documents/big.mind.games/lmsdesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784AEDEE-C66A-FB41-AAAB-E2DA0EB9F35A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DCE9B0-2AC1-FD4D-A11D-A7FB1DB445B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="27120" windowHeight="28800" xr2:uid="{4ACE1193-22E6-6947-9F89-C5FD4D3D5CE5}"/>
+    <workbookView xWindow="33600" yWindow="0" windowWidth="30620" windowHeight="28800" xr2:uid="{4ACE1193-22E6-6947-9F89-C5FD4D3D5CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Home All" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Item Number</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>tenant id</t>
+  </si>
+  <si>
+    <t>Item Order</t>
   </si>
 </sst>
 </file>
@@ -564,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DD5A97-41A4-874C-A210-9AB83ADB41D5}">
-  <dimension ref="B2:H52"/>
+  <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,7 +905,9 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -911,7 +916,9 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1107,24 +1114,6 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
